--- a/SCBAA/Defaultgraph.xlsx
+++ b/SCBAA/Defaultgraph.xlsx
@@ -464,10 +464,8 @@
           <t>NCR</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C2" t="n">
+        <v>2016</v>
       </c>
       <c r="D2" t="n">
         <v>85524678304.93071</v>
@@ -485,10 +483,8 @@
           <t>CAR</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C3" t="n">
+        <v>2016</v>
       </c>
       <c r="D3" t="n">
         <v>2284537375.66</v>
@@ -506,10 +502,8 @@
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C4" t="n">
+        <v>2016</v>
       </c>
       <c r="D4" t="n">
         <v>5970637765.07</v>
@@ -527,10 +521,8 @@
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C5" t="n">
+        <v>2016</v>
       </c>
       <c r="D5" t="n">
         <v>4668669129.73</v>
@@ -548,10 +540,8 @@
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C6" t="n">
+        <v>2016</v>
       </c>
       <c r="D6" t="n">
         <v>21958738106.26</v>
@@ -569,10 +559,8 @@
           <t>Region 4A</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C7" t="n">
+        <v>2016</v>
       </c>
       <c r="D7" t="n">
         <v>25547453488.84</v>
@@ -590,10 +578,8 @@
           <t>Region 4B</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C8" t="n">
+        <v>2016</v>
       </c>
       <c r="D8" t="n">
         <v>3012874720.2</v>
@@ -611,10 +597,8 @@
           <t>Region 5</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C9" t="n">
+        <v>2016</v>
       </c>
       <c r="D9" t="n">
         <v>4809707351.78</v>
@@ -632,10 +616,8 @@
           <t>Region 6</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C10" t="n">
+        <v>2016</v>
       </c>
       <c r="D10" t="n">
         <v>4099119113.74</v>
@@ -653,10 +635,8 @@
           <t>Region 7</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C11" t="n">
+        <v>2016</v>
       </c>
       <c r="D11" t="n">
         <v>14194467211.04</v>
@@ -674,10 +654,8 @@
           <t>Region 8</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C12" t="n">
+        <v>2016</v>
       </c>
       <c r="D12" t="n">
         <v>6205400438.539999</v>
@@ -695,10 +673,8 @@
           <t>Region 9</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C13" t="n">
+        <v>2016</v>
       </c>
       <c r="D13" t="n">
         <v>5110559644.33</v>
@@ -716,10 +692,8 @@
           <t>Region 10</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C14" t="n">
+        <v>2016</v>
       </c>
       <c r="D14" t="n">
         <v>8905542282.75</v>
@@ -737,10 +711,8 @@
           <t>Region 11</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C15" t="n">
+        <v>2016</v>
       </c>
       <c r="D15" t="n">
         <v>10744755389.41</v>
@@ -758,10 +730,8 @@
           <t>Region 12</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C16" t="n">
+        <v>2016</v>
       </c>
       <c r="D16" t="n">
         <v>4164063026.950001</v>
@@ -779,10 +749,8 @@
           <t>Region 13</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2016</v>
       </c>
       <c r="D17" t="n">
         <v>4552426787.280001</v>
@@ -800,10 +768,8 @@
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C18" t="n">
+        <v>2016</v>
       </c>
       <c r="D18" t="n">
         <v>1018683430.89</v>
@@ -821,10 +787,8 @@
           <t>NIR</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C19" t="n">
+        <v>2016</v>
       </c>
       <c r="D19" t="n">
         <v>11000219296.72</v>
@@ -842,10 +806,8 @@
           <t>NCR</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C20" t="n">
+        <v>2017</v>
       </c>
       <c r="D20" t="n">
         <v>111244702314.6082</v>
@@ -863,10 +825,8 @@
           <t>CAR</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C21" t="n">
+        <v>2017</v>
       </c>
       <c r="D21" t="n">
         <v>2701535906.63</v>
@@ -884,10 +844,8 @@
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C22" t="n">
+        <v>2017</v>
       </c>
       <c r="D22" t="n">
         <v>6169119548.84</v>
@@ -905,10 +863,8 @@
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C23" t="n">
+        <v>2017</v>
       </c>
       <c r="D23" t="n">
         <v>3876935525.71</v>
@@ -926,10 +882,8 @@
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C24" t="n">
+        <v>2017</v>
       </c>
       <c r="D24" t="n">
         <v>15841886974.006</v>
@@ -947,10 +901,8 @@
           <t>Region 4A</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C25" t="n">
+        <v>2017</v>
       </c>
       <c r="D25" t="n">
         <v>31615383949.08</v>
@@ -968,10 +920,8 @@
           <t>Region 4B</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C26" t="n">
+        <v>2017</v>
       </c>
       <c r="D26" t="n">
         <v>3556265124.94</v>
@@ -989,10 +939,8 @@
           <t>Region 5</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C27" t="n">
+        <v>2017</v>
       </c>
       <c r="D27" t="n">
         <v>6326807503.25</v>
@@ -1010,10 +958,8 @@
           <t>Region 6</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C28" t="n">
+        <v>2017</v>
       </c>
       <c r="D28" t="n">
         <v>4672780979.4</v>
@@ -1031,10 +977,8 @@
           <t>Region 7</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C29" t="n">
+        <v>2017</v>
       </c>
       <c r="D29" t="n">
         <v>16082699330.19</v>
@@ -1052,10 +996,8 @@
           <t>Region 8</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C30" t="n">
+        <v>2017</v>
       </c>
       <c r="D30" t="n">
         <v>5764961084.270999</v>
@@ -1073,10 +1015,8 @@
           <t>Region 9</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C31" t="n">
+        <v>2017</v>
       </c>
       <c r="D31" t="n">
         <v>5761162782.97</v>
@@ -1094,10 +1034,8 @@
           <t>Region 10</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C32" t="n">
+        <v>2017</v>
       </c>
       <c r="D32" t="n">
         <v>9623983247.110001</v>
@@ -1115,10 +1053,8 @@
           <t>Region 11</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C33" t="n">
+        <v>2017</v>
       </c>
       <c r="D33" t="n">
         <v>4760183708.22</v>
@@ -1136,10 +1072,8 @@
           <t>Region 12</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C34" t="n">
+        <v>2017</v>
       </c>
       <c r="D34" t="n">
         <v>4476534766.85</v>
@@ -1157,10 +1091,8 @@
           <t>Region 13</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C35" t="n">
+        <v>2017</v>
       </c>
       <c r="D35" t="n">
         <v>5021414922.61</v>
@@ -1178,10 +1110,8 @@
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C36" t="n">
+        <v>2017</v>
       </c>
       <c r="D36" t="n">
         <v>1063175203.2</v>
@@ -1199,10 +1129,8 @@
           <t>NIR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C37" t="n">
+        <v>2017</v>
       </c>
       <c r="D37" t="n">
         <v>13545178335.34</v>
@@ -1220,10 +1148,8 @@
           <t>NCR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C38" t="n">
+        <v>2018</v>
       </c>
       <c r="D38" t="n">
         <v>117384515136.7121</v>
@@ -1241,10 +1167,8 @@
           <t>CAR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C39" t="n">
+        <v>2018</v>
       </c>
       <c r="D39" t="n">
         <v>2833595919.75</v>
@@ -1262,10 +1186,8 @@
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C40" t="n">
+        <v>2018</v>
       </c>
       <c r="D40" t="n">
         <v>6778862983.860001</v>
@@ -1283,10 +1205,8 @@
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C41" t="n">
+        <v>2018</v>
       </c>
       <c r="D41" t="n">
         <v>5532212885.5</v>
@@ -1304,10 +1224,8 @@
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C42" t="n">
+        <v>2018</v>
       </c>
       <c r="D42" t="n">
         <v>17488582336.853</v>
@@ -1325,10 +1243,8 @@
           <t>Region 4A</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C43" t="n">
+        <v>2018</v>
       </c>
       <c r="D43" t="n">
         <v>47137127988.21</v>
@@ -1346,10 +1262,8 @@
           <t>Region 4B</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C44" t="n">
+        <v>2018</v>
       </c>
       <c r="D44" t="n">
         <v>3966919823.27</v>
@@ -1367,10 +1281,8 @@
           <t>Region 5</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C45" t="n">
+        <v>2018</v>
       </c>
       <c r="D45" t="n">
         <v>5785029599.96</v>
@@ -1388,10 +1300,8 @@
           <t>Region 6</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C46" t="n">
+        <v>2018</v>
       </c>
       <c r="D46" t="n">
         <v>5816525349.53</v>
@@ -1409,10 +1319,8 @@
           <t>Region 7</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C47" t="n">
+        <v>2018</v>
       </c>
       <c r="D47" t="n">
         <v>16705092885.19</v>
@@ -1430,10 +1338,8 @@
           <t>Region 8</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C48" t="n">
+        <v>2018</v>
       </c>
       <c r="D48" t="n">
         <v>6681958247.94</v>
@@ -1451,10 +1357,8 @@
           <t>Region 9</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C49" t="n">
+        <v>2018</v>
       </c>
       <c r="D49" t="n">
         <v>6310711024.35</v>
@@ -1472,10 +1376,8 @@
           <t>Region 10</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C50" t="n">
+        <v>2018</v>
       </c>
       <c r="D50" t="n">
         <v>9315742610.290001</v>
@@ -1493,10 +1395,8 @@
           <t>Region 11</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C51" t="n">
+        <v>2018</v>
       </c>
       <c r="D51" t="n">
         <v>15494082279.77</v>
@@ -1514,10 +1414,8 @@
           <t>Region 12</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C52" t="n">
+        <v>2018</v>
       </c>
       <c r="D52" t="n">
         <v>5559921247.54</v>
@@ -1535,10 +1433,8 @@
           <t>Region 13</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C53" t="n">
+        <v>2018</v>
       </c>
       <c r="D53" t="n">
         <v>3579383109.82</v>
@@ -1556,10 +1452,8 @@
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C54" t="n">
+        <v>2018</v>
       </c>
       <c r="D54" t="n">
         <v>1224976987.37</v>
@@ -1577,10 +1471,8 @@
           <t>NIR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C55" t="n">
+        <v>2018</v>
       </c>
       <c r="D55" t="n">
         <v>16693567874.01</v>
@@ -1598,10 +1490,8 @@
           <t>NCR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C56" t="n">
+        <v>2019</v>
       </c>
       <c r="D56" t="n">
         <v>138359077967.4542</v>
@@ -1619,10 +1509,8 @@
           <t>CAR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C57" t="n">
+        <v>2019</v>
       </c>
       <c r="D57" t="n">
         <v>3146470378.79</v>
@@ -1640,10 +1528,8 @@
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C58" t="n">
+        <v>2019</v>
       </c>
       <c r="D58" t="n">
         <v>8349183051.583</v>
@@ -1661,10 +1547,8 @@
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C59" t="n">
+        <v>2019</v>
       </c>
       <c r="D59" t="n">
         <v>5454310469.53</v>
@@ -1682,10 +1566,8 @@
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C60" t="n">
+        <v>2019</v>
       </c>
       <c r="D60" t="n">
         <v>17393105130.28</v>
@@ -1703,10 +1585,8 @@
           <t>Region 4A</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C61" t="n">
+        <v>2019</v>
       </c>
       <c r="D61" t="n">
         <v>46949535143.08001</v>
@@ -1724,10 +1604,8 @@
           <t>Region 4B</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C62" t="n">
+        <v>2019</v>
       </c>
       <c r="D62" t="n">
         <v>4367041830.15</v>
@@ -1745,10 +1623,8 @@
           <t>Region 5</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C63" t="n">
+        <v>2019</v>
       </c>
       <c r="D63" t="n">
         <v>5840582137.61</v>
@@ -1766,10 +1642,8 @@
           <t>Region 6</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C64" t="n">
+        <v>2019</v>
       </c>
       <c r="D64" t="n">
         <v>5806138128.51</v>
@@ -1787,10 +1661,8 @@
           <t>Region 7</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C65" t="n">
+        <v>2019</v>
       </c>
       <c r="D65" t="n">
         <v>19113561553.91</v>
@@ -1808,10 +1680,8 @@
           <t>Region 8</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C66" t="n">
+        <v>2019</v>
       </c>
       <c r="D66" t="n">
         <v>7767216938.07</v>
@@ -1829,10 +1699,8 @@
           <t>Region 9</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C67" t="n">
+        <v>2019</v>
       </c>
       <c r="D67" t="n">
         <v>6685867358.25</v>
@@ -1850,10 +1718,8 @@
           <t>Region 10</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C68" t="n">
+        <v>2019</v>
       </c>
       <c r="D68" t="n">
         <v>11386676108.84</v>
@@ -1871,10 +1737,8 @@
           <t>Region 11</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C69" t="n">
+        <v>2019</v>
       </c>
       <c r="D69" t="n">
         <v>18601704467.3</v>
@@ -1892,10 +1756,8 @@
           <t>Region 12</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C70" t="n">
+        <v>2019</v>
       </c>
       <c r="D70" t="n">
         <v>6269229989.49</v>
@@ -1913,10 +1775,8 @@
           <t>Region 13</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C71" t="n">
+        <v>2019</v>
       </c>
       <c r="D71" t="n">
         <v>5898125404.4</v>
@@ -1934,10 +1794,8 @@
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C72" t="n">
+        <v>2019</v>
       </c>
       <c r="D72" t="n">
         <v>2004459443.65</v>
@@ -1955,10 +1813,8 @@
           <t>NIR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C73" t="n">
+        <v>2019</v>
       </c>
       <c r="D73" t="n">
         <v>15954505340.85</v>
@@ -1976,10 +1832,8 @@
           <t>NCR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C74" t="n">
+        <v>2020</v>
       </c>
       <c r="D74" t="n">
         <v>149129098739.59</v>
@@ -1997,10 +1851,8 @@
           <t>CAR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C75" t="n">
+        <v>2020</v>
       </c>
       <c r="D75" t="n">
         <v>3365668696.68</v>
@@ -2018,10 +1870,8 @@
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C76" t="n">
+        <v>2020</v>
       </c>
       <c r="D76" t="n">
         <v>7238207581.039999</v>
@@ -2039,10 +1889,8 @@
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C77" t="n">
+        <v>2020</v>
       </c>
       <c r="D77" t="n">
         <v>6361256019.11155</v>
@@ -2060,10 +1908,8 @@
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C78" t="n">
+        <v>2020</v>
       </c>
       <c r="D78" t="n">
         <v>19791845172.0055</v>
@@ -2081,10 +1927,8 @@
           <t>Region 4A</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C79" t="n">
+        <v>2020</v>
       </c>
       <c r="D79" t="n">
         <v>46302689519.82</v>
@@ -2102,10 +1946,8 @@
           <t>Region 4B</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C80" t="n">
+        <v>2020</v>
       </c>
       <c r="D80" t="n">
         <v>4874262459.74</v>
@@ -2123,10 +1965,8 @@
           <t>Region 5</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C81" t="n">
+        <v>2020</v>
       </c>
       <c r="D81" t="n">
         <v>5681196908.209999</v>
@@ -2144,10 +1984,8 @@
           <t>Region 6</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C82" t="n">
+        <v>2020</v>
       </c>
       <c r="D82" t="n">
         <v>7296214261.46</v>
@@ -2165,10 +2003,8 @@
           <t>Region 7</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C83" t="n">
+        <v>2020</v>
       </c>
       <c r="D83" t="n">
         <v>20342504213.81</v>
@@ -2186,10 +2022,8 @@
           <t>Region 8</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C84" t="n">
+        <v>2020</v>
       </c>
       <c r="D84" t="n">
         <v>8832317049.08</v>
@@ -2207,10 +2041,8 @@
           <t>Region 9</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C85" t="n">
+        <v>2020</v>
       </c>
       <c r="D85" t="n">
         <v>7999937058.129999</v>
@@ -2228,10 +2060,8 @@
           <t>Region 10</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C86" t="n">
+        <v>2020</v>
       </c>
       <c r="D86" t="n">
         <v>14201912370.09</v>
@@ -2249,10 +2079,8 @@
           <t>Region 11</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C87" t="n">
+        <v>2020</v>
       </c>
       <c r="D87" t="n">
         <v>20571419191.76</v>
@@ -2270,10 +2098,8 @@
           <t>Region 12</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C88" t="n">
+        <v>2020</v>
       </c>
       <c r="D88" t="n">
         <v>7508738143.610001</v>
@@ -2291,10 +2117,8 @@
           <t>Region 13</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C89" t="n">
+        <v>2020</v>
       </c>
       <c r="D89" t="n">
         <v>7183253357.63</v>
@@ -2312,10 +2136,8 @@
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C90" t="n">
+        <v>2020</v>
       </c>
       <c r="D90" t="n">
         <v>1477945959.83</v>
@@ -2333,10 +2155,8 @@
           <t>NIR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C91" t="n">
+        <v>2020</v>
       </c>
       <c r="D91" t="n">
         <v>18089811557.94</v>

--- a/SCBAA/Defaultgraph.xlsx
+++ b/SCBAA/Defaultgraph.xlsx
@@ -1,37 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Appropriations</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Region 3</t>
+  </si>
+  <si>
+    <t>Region 4A</t>
+  </si>
+  <si>
+    <t>Region 4B</t>
+  </si>
+  <si>
+    <t>Region 5</t>
+  </si>
+  <si>
+    <t>Region 6</t>
+  </si>
+  <si>
+    <t>Region 7</t>
+  </si>
+  <si>
+    <t>Region 8</t>
+  </si>
+  <si>
+    <t>Region 9</t>
+  </si>
+  <si>
+    <t>Region 10</t>
+  </si>
+  <si>
+    <t>Region 11</t>
+  </si>
+  <si>
+    <t>Region 12</t>
+  </si>
+  <si>
+    <t>Region 13</t>
+  </si>
+  <si>
+    <t>BARMM</t>
+  </si>
+  <si>
+    <t>NIR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +120,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1752 +436,1558 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Appropriations</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NCR</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>2016</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>85524678304.93071</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>75607275209.27124</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>2016</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2284537375.66</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1488854467.85</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Region 1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>2016</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>5970637765.07</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4880019871.549999</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Region 2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>2016</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4668669129.73</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3611064542.58</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Region 3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>2016</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>21958738106.26</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>17808965939.24405</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Region 4A</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>2016</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>25547453488.84</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>22719484519.216</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Region 4B</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>2016</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3012874720.2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2717738704.42</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Region 5</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>2016</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4809707351.78</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4225793850.73</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Region 6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>2016</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4099119113.74</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3389107231.179999</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Region 7</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
         <v>2016</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>14194467211.04</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>11765066905.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Region 8</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
         <v>2016</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>6205400438.539999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>5118151009.780001</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Region 9</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>2016</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>5110559644.33</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>4249790455.81</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Region 10</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
         <v>2016</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>8905542282.75</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>7197535671.150001</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Region 11</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
         <v>2016</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>10744755389.41</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>9924732273.449999</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Region 12</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
         <v>2016</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>4164063026.950001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3648167178.56</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Region 13</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
         <v>2016</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4552426787.280001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>9471413551.42</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BARMM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
         <v>2016</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1018683430.89</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>961323056.6800001</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>NIR</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
         <v>2016</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>11000219296.72</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>9699563241.120001</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NCR</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>2017</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>111244702314.6082</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>85672108930.23029</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
         <v>2017</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2701535906.63</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1737604504.43</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Region 1</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>2017</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>6169119548.84</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>5202679527.360001</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Region 2</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
         <v>2017</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>3876935525.71</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>4378715894.85</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Region 3</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
         <v>2017</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>15841886974.006</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>22915521984.018</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Region 4A</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
         <v>2017</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>31615383949.08</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>27668495259.31</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Region 4B</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
         <v>2017</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3556265124.94</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>2667980789.320001</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Region 5</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
         <v>2017</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>6326807503.25</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>5620698294.56</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Region 6</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
         <v>2017</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>4672780979.4</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>3122636138.979999</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Region 7</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
         <v>2017</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>16082699330.19</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>13641025358.37</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Region 8</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
         <v>2017</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>5764961084.270999</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>3704510825.550001</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Region 9</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
         <v>2017</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>5761162782.97</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>4662661683.65</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Region 10</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
         <v>2017</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>9623983247.110001</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>8916655343.49</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Region 11</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
         <v>2017</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>4760183708.22</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>4182200653.54</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Region 12</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
         <v>2017</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>4476534766.85</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>3736393200.6</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Region 13</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
         <v>2017</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>5021414922.61</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>4327344901.070001</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>BARMM</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
         <v>2017</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1063175203.2</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>1028446861.73</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>NIR</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
         <v>2017</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>13545178335.34</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>11509122030.07</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>NCR</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
         <v>2018</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>117384515136.7121</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>117938880926.767</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
         <v>2018</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>2833595919.75</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>1889936061.34</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Region 1</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
         <v>2018</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6778862983.860001</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>5735221337.619999</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Region 2</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
         <v>2018</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>5532212885.5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>5212824695.4</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Region 3</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
         <v>2018</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>17488582336.853</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>16584118358.853</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Region 4A</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
         <v>2018</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>47137127988.21</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>36096550256.82</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Region 4B</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
         <v>2018</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>3966919823.27</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>2931334682.25</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Region 5</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
         <v>2018</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>5785029599.96</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>5482859674.16</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Region 6</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
         <v>2018</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>5816525349.53</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>3617216706.03</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Region 7</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
         <v>2018</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>16705092885.19</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>15203469154.09</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Region 8</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
         <v>2018</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>6681958247.94</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>5858281601.87</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Region 9</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
         <v>2018</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>6310711024.35</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>4408164955.969999</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Region 10</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
         <v>2018</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>9315742610.290001</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>8092568646.99</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Region 11</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
         <v>2018</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>15494082279.77</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>12299630747.6</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Region 12</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
         <v>2018</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>5559921247.54</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>5435564132.98</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Region 13</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
         <v>2018</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>3579383109.82</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>3317045096.31</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>BARMM</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
         <v>2018</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>1224976987.37</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>1097398542.8</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>NIR</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
         <v>2018</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>16693567874.01</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>14012640246.69</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>NCR</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
         <v>2019</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>138359077967.4542</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>111687080930.319</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
         <v>2019</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>3146470378.79</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>2502518544.84</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Region 1</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
         <v>2019</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>8349183051.583</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>6958256560.76</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Region 2</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
         <v>2019</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>5454310469.53</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>5555600582.02</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Region 3</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
         <v>2019</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>17393105130.28</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>17258274809.696</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Region 4A</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
         <v>2019</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>46949535143.08001</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>44745663260.47</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Region 4B</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
         <v>2019</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>4367041830.15</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>3889381255.65</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Region 5</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
         <v>2019</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>5840582137.61</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>6346353056.5</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Region 6</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
         <v>2019</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>5806138128.51</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>3765263745.56</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Region 7</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
         <v>2019</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>19113561553.91</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>17655352636.05</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Region 8</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
         <v>2019</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>7767216938.07</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>7180137875.68</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Region 9</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
         <v>2019</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>6685867358.25</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>7463187194.94</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Region 10</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
         <v>2019</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>11386676108.84</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>9725942587.450001</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Region 11</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
         <v>2019</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>18601704467.3</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>14291470345.8</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Region 12</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
         <v>2019</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>6269229989.49</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>5935943813.42</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Region 13</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71">
         <v>2019</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>5898125404.4</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>5658878714.95</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>BARMM</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
         <v>2019</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>2004459443.65</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>1773658885.21</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>NIR</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
         <v>2019</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>15954505340.85</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>15215376845.31</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>NCR</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
         <v>2020</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>149129098739.59</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>136664322258.8385</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
         <v>2020</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>3365668696.68</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>2765418036.46</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Region 1</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
         <v>2020</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>7238207581.039999</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>6772283350.0275</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Region 2</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
         <v>2020</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>6361256019.11155</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>6047650612.41</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Region 3</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
         <v>2020</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>19791845172.0055</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>18621206014.07778</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Region 4A</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
         <v>2020</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>46302689519.82</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>44089169255.68999</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Region 4B</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
         <v>2020</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>4874262459.74</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>4143190564.25</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Region 5</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81">
         <v>2020</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>5681196908.209999</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>5589662333.15</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Region 6</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
         <v>2020</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>7296214261.46</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>4637188598.886</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Region 7</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
         <v>2020</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>20342504213.81</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>23367910331.52999</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Region 8</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
         <v>2020</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>8832317049.08</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>7920091909.290001</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Region 9</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85">
         <v>2020</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>7999937058.129999</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>8199352453.32</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Region 10</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86">
         <v>2020</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>14201912370.09</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>12318460691.31</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Region 11</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87">
         <v>2020</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>20571419191.76</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>16489878443.99001</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Region 12</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88">
         <v>2020</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>7508738143.610001</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>7980271887.279999</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Region 13</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89">
         <v>2020</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>7183253357.63</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>6324735758.88</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>BARMM</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90">
         <v>2020</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>1477945959.83</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>1500941194.61</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>NIR</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91">
         <v>2020</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>18089811557.94</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>19016681834.133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SCBAA/Defaultgraph.xlsx
+++ b/SCBAA/Defaultgraph.xlsx
@@ -607,7 +607,7 @@
         <v>4099119113.74</v>
       </c>
       <c r="E10">
-        <v>3389107231.179999</v>
+        <v>3389107231.18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -706,7 +706,7 @@
         <v>2016</v>
       </c>
       <c r="D16">
-        <v>4164063026.950001</v>
+        <v>4164063026.95</v>
       </c>
       <c r="E16">
         <v>3648167178.56</v>
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="D17">
-        <v>4552426787.280001</v>
+        <v>4552426787.28</v>
       </c>
       <c r="E17">
         <v>9471413551.42</v>
@@ -777,7 +777,7 @@
         <v>111244702314.6082</v>
       </c>
       <c r="E20">
-        <v>85672108930.23029</v>
+        <v>85672108930.23027</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -879,7 +879,7 @@
         <v>3556265124.94</v>
       </c>
       <c r="E26">
-        <v>2667980789.320001</v>
+        <v>2667980789.32</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -947,7 +947,7 @@
         <v>5764961084.270999</v>
       </c>
       <c r="E30">
-        <v>3704510825.550001</v>
+        <v>3704510825.55</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1032,7 +1032,7 @@
         <v>5021414922.61</v>
       </c>
       <c r="E35">
-        <v>4327344901.070001</v>
+        <v>4327344901.07</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1080,7 +1080,7 @@
         <v>2018</v>
       </c>
       <c r="D38">
-        <v>117384515136.7121</v>
+        <v>117384515136.8021</v>
       </c>
       <c r="E38">
         <v>117938880926.767</v>
@@ -1165,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="D43">
-        <v>47137127988.21</v>
+        <v>47137127988.21001</v>
       </c>
       <c r="E43">
         <v>36096550256.82</v>
@@ -1318,7 +1318,7 @@
         <v>2018</v>
       </c>
       <c r="D52">
-        <v>5559921247.54</v>
+        <v>5559921247.540001</v>
       </c>
       <c r="E52">
         <v>5435564132.98</v>
@@ -1522,7 +1522,7 @@
         <v>2019</v>
       </c>
       <c r="D64">
-        <v>5806138128.51</v>
+        <v>5806138128.509999</v>
       </c>
       <c r="E64">
         <v>3765263745.56</v>
@@ -1593,7 +1593,7 @@
         <v>11386676108.84</v>
       </c>
       <c r="E68">
-        <v>9725942587.450001</v>
+        <v>9725942587.449999</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1726,7 +1726,7 @@
         <v>2020</v>
       </c>
       <c r="D76">
-        <v>7238207581.039999</v>
+        <v>7238207581.040001</v>
       </c>
       <c r="E76">
         <v>6772283350.0275</v>
@@ -1848,7 +1848,7 @@
         <v>20342504213.81</v>
       </c>
       <c r="E83">
-        <v>23367910331.52999</v>
+        <v>23367910331.53</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1933,7 +1933,7 @@
         <v>7508738143.610001</v>
       </c>
       <c r="E88">
-        <v>7980271887.279999</v>
+        <v>7980271887.28</v>
       </c>
     </row>
     <row r="89" spans="1:5">
